--- a/3. Users/DungHVHE130952/Testcase/Report5_Test Case Document.xlsx
+++ b/3. Users/DungHVHE130952/Testcase/Report5_Test Case Document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasuo\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone\3. Users\DungHVHE130952\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EB6BE-C5CA-4281-84CF-6C41D7E5E8DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424745E4-742A-4338-B5E6-93C9C7B1E8CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,6 +1570,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1633,9 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2106,14 +2106,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2124,11 +2124,11 @@
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2138,36 +2138,36 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134" t="str">
+      <c r="C6" s="135" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2325,39 +2325,39 @@
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="str">
+      <c r="C3" s="144"/>
+      <c r="D3" s="145" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="str">
+      <c r="C4" s="144"/>
+      <c r="D4" s="145" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
     </row>
     <row r="5" spans="2:6" s="42" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43"/>
@@ -2541,8 +2541,8 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="8" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2566,12 +2566,12 @@
       <c r="A2" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="122"/>
       <c r="G2" s="116"/>
       <c r="H2" s="66"/>
@@ -2586,12 +2586,12 @@
       <c r="A3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="122"/>
       <c r="G3" s="116"/>
       <c r="H3" s="66"/>
@@ -2606,10 +2606,10 @@
       <c r="A4" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="122"/>
       <c r="G4" s="116"/>
       <c r="H4" s="66"/>
@@ -2655,10 +2655,7 @@
         <f>COUNTIF(G10:G998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="129">
-        <f>E6-D6-B6-A6</f>
-        <v>12</v>
-      </c>
+      <c r="C6" s="129"/>
       <c r="D6" s="129">
         <f>COUNTIF(G10:G998,"N/A")</f>
         <v>0</v>
@@ -2767,7 +2764,7 @@
       <c r="C11" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="132" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="81"/>
@@ -2788,7 +2785,7 @@
       <c r="C12" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="132" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="81"/>
@@ -3042,12 +3039,12 @@
       <c r="A2" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="122"/>
       <c r="G2" s="116"/>
       <c r="H2" s="66"/>
@@ -3062,12 +3059,12 @@
       <c r="A3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="122"/>
       <c r="G3" s="116"/>
       <c r="H3" s="66"/>
@@ -3082,10 +3079,10 @@
       <c r="A4" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="122"/>
       <c r="G4" s="116"/>
       <c r="H4" s="66"/>
@@ -3388,15 +3385,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="85"/>
@@ -3412,14 +3409,14 @@
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="151" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
     </row>
@@ -3427,14 +3424,14 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="151" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="88"/>
       <c r="H4" s="89"/>
     </row>
@@ -3442,15 +3439,15 @@
       <c r="B5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="144" t="str">
+      <c r="C5" s="145" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="151" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="88"/>
       <c r="H5" s="91" t="s">
         <v>54</v>
@@ -3461,14 +3458,14 @@
       <c r="B6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="85"/>
@@ -3542,7 +3539,7 @@
       </c>
       <c r="F11" s="104">
         <f>'My Profile Screen'!C6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G11" s="105">
         <f>'My Profile Screen'!D6</f>
@@ -3609,7 +3606,7 @@
       </c>
       <c r="F14" s="109">
         <f>SUM(F9:F13)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G14" s="109">
         <f>SUM(G9:G13)</f>
